--- a/public/upload/Used laptop.xlsx
+++ b/public/upload/Used laptop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Laptop</t>
   </si>
   <si>
-    <t>SP046727</t>
+    <t>SP046734</t>
   </si>
   <si>
     <t>5th Gen</t>
@@ -101,7 +101,7 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>C1MVQAD2J1WK</t>
+    <t>FVHYMGD0J1WK</t>
   </si>
   <si>
     <t>Macbook Air A1466</t>
@@ -110,76 +110,37 @@
     <t>Intel Core i5</t>
   </si>
   <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>2022-07-20 13:15:16</t>
+  </si>
+  <si>
+    <t>C17QM7EAG940</t>
+  </si>
+  <si>
+    <t>intel Core i5</t>
+  </si>
+  <si>
     <t>13.3"</t>
   </si>
   <si>
-    <t>Body Scratch</t>
-  </si>
-  <si>
-    <t>Jackss</t>
-  </si>
-  <si>
-    <t>2022-06-21 09:25:16</t>
-  </si>
-  <si>
-    <t>2022-06-24 00:00:00</t>
-  </si>
-  <si>
-    <t>SP046728</t>
-  </si>
-  <si>
-    <t>C02RM14GFVH5</t>
-  </si>
-  <si>
-    <t>Macbook Pro A1502</t>
-  </si>
-  <si>
-    <t>SP046983</t>
-  </si>
-  <si>
-    <t>7th Gen</t>
-  </si>
-  <si>
-    <t>C02TV15VHV2N</t>
-  </si>
-  <si>
-    <t>Macbook Pro A1706</t>
-  </si>
-  <si>
-    <t>intel Core i5</t>
-  </si>
-  <si>
-    <t>SilverTouch Bar</t>
-  </si>
-  <si>
-    <t>SP047240</t>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>2022-06-25 13:26:07</t>
+  </si>
+  <si>
+    <t>ST192390</t>
   </si>
   <si>
     <t>8th Gen</t>
   </si>
   <si>
-    <t>FVFZH1FFLYWH</t>
+    <t>C02YT149JK7F</t>
   </si>
   <si>
     <t>Macbook Air A1932</t>
-  </si>
-  <si>
-    <t>SP046735</t>
-  </si>
-  <si>
-    <t>C02PNFT1FVH3</t>
-  </si>
-  <si>
-    <t>Body Broken</t>
-  </si>
-  <si>
-    <t>Jacks</t>
-  </si>
-  <si>
-    <t>2022-06-25 13:26:07</t>
-  </si>
-  <si>
-    <t>2022-07-25 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -515,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +557,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>48139009</v>
+        <v>48142336</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -634,28 +595,24 @@
         <v>128</v>
       </c>
       <c r="O2"/>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>13.3</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="R2"/>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
+      <c r="W2"/>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>48139010</v>
+        <v>48142592</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -664,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -673,46 +630,46 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="N3">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3"/>
       <c r="V3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="W3"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>48139265</v>
+        <v>48142848</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -721,169 +678,47 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>8192</v>
       </c>
       <c r="N4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="O4"/>
       <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
+      <c r="S4"/>
       <c r="T4"/>
       <c r="U4"/>
       <c r="V4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5">
-        <v>48139522</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>8192</v>
-      </c>
-      <c r="N5">
-        <v>256</v>
-      </c>
-      <c r="O5"/>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6">
-        <v>48142337</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>8192</v>
-      </c>
-      <c r="N6">
-        <v>128</v>
-      </c>
-      <c r="O6"/>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6"/>
-      <c r="S6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" t="s">
-        <v>54</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="W4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
